--- a/biology/Botanique/Renoncule_rampante/Renoncule_rampante.xlsx
+++ b/biology/Botanique/Renoncule_rampante/Renoncule_rampante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ranunculus repens
 La renoncule rampante ou bouton d'or (Ranunculus repens) est une plante à fleur herbacée du genre Ranunculus qui se reproduit notamment par des stolons souterrains qui produisent des racines et une nouvelle plante à chacun de ses nœuds.
@@ -514,7 +526,9 @@
           <t>Risque de confusion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante peut être confondue avec les autres renoncules. De loin avec la Ficaire, bien que ses feuilles en soient très différentes.
 </t>
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est originaire d'Europe, mais s'est implantée dans diverses parties du monde.
 </t>
@@ -576,7 +592,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de « bouton d'or » est aussi attribué à d'autres espèces de renoncules à fleurs jaunes.
 </t>
@@ -607,7 +625,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
@@ -651,7 +671,9 @@
           <t>Plante localement envahissante</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La renoncule rampante a été vendue dans de nombreuses régions du monde en tant que plante ornementale[réf. souhaitée] et est maintenant devenue une espèce envahissante dans certaines de ces régions.
 Le goût de la renoncule rampante est âcre, et le bétail évite de la manger.
@@ -685,9 +707,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une étude ethnobotanique publiée par Françoise et Grégoire Nicollier en 1984 sur les plantes dans la vie quotidienne à Bagnes (Valais), cette plante (dénommée fî fraide (« racine froide ») ou pyà de tsyöre (« pied-de-chèvre ») dans le patois local était autrefois utilisée dans la pharmacopée traditionnelle comme vésicatoire, mise en compresse sur les infections, pour l'Homme comme pour le bétail[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une étude ethnobotanique publiée par Françoise et Grégoire Nicollier en 1984 sur les plantes dans la vie quotidienne à Bagnes (Valais), cette plante (dénommée fî fraide (« racine froide ») ou pyà de tsyöre (« pied-de-chèvre ») dans le patois local était autrefois utilisée dans la pharmacopée traditionnelle comme vésicatoire, mise en compresse sur les infections, pour l'Homme comme pour le bétail.
 </t>
         </is>
       </c>
@@ -716,7 +740,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante, comme les autres renoncules, contient de la renonculine, un glycoside toxique évité par le bétail à l'état frais, mais quand la plante sèche la toxine disparaît, de sorte que le foin contenant la plante est sans danger pour la consommation animale.
 Le contact avec la sève de la plante peut provoquer des cloques de la peau.
